--- a/Algoritmo_Rota_2/Ativos_Russas.xlsx
+++ b/Algoritmo_Rota_2/Ativos_Russas.xlsx
@@ -458,23 +458,23 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>27, 11, 10, 2, 25</t>
+          <t>9, 19, 31, 4, 11</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27 -&gt; 27 -&gt; 25 -&gt; 2 -&gt; 10 -&gt; 11 -&gt; 27</t>
+          <t>29 -&gt; 31 -&gt; 31 -&gt; 19 -&gt; 19 -&gt; 11 -&gt; 11 -&gt; 4 -&gt; 4 -&gt; 9</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1194</v>
+        <v>1188</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.1214172840118408</v>
       </c>
     </row>
     <row r="3">
@@ -482,23 +482,23 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>17, 31, 22, 6, 8</t>
+          <t>10, 19, 8, 26, 13</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27 -&gt; 31 -&gt; 17 -&gt; 22 -&gt; 8 -&gt; 6 -&gt; 27</t>
+          <t>9 -&gt; 13 -&gt; 13 -&gt; 19 -&gt; 19 -&gt; 10 -&gt; 10 -&gt; 8 -&gt; 8 -&gt; 26</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1528</v>
+        <v>1172</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.1215567588806152</v>
       </c>
     </row>
     <row r="4">
@@ -506,23 +506,23 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>24, 21, 6, 15, 26</t>
+          <t>6, 30, 21, 10, 4</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>31 -&gt; 24 -&gt; 21 -&gt; 15 -&gt; 6 -&gt; 26 -&gt; 31</t>
+          <t>25 -&gt; 6 -&gt; 6 -&gt; 4 -&gt; 4 -&gt; 10 -&gt; 10 -&gt; 21 -&gt; 21 -&gt; 30</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1534</v>
+        <v>1163</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.1183443069458008</v>
       </c>
     </row>
     <row r="5">
@@ -530,23 +530,23 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>22, 19, 11, 21, 12</t>
+          <t>18, 24, 2, 8, 28</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13 -&gt; 12 -&gt; 11 -&gt; 22 -&gt; 21 -&gt; 19 -&gt; 13</t>
+          <t>5 -&gt; 2 -&gt; 2 -&gt; 8 -&gt; 8 -&gt; 28 -&gt; 28 -&gt; 24 -&gt; 24 -&gt; 18</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>954</v>
+        <v>1196</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.1190147399902344</v>
       </c>
     </row>
     <row r="6">
@@ -554,23 +554,23 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>28, 4, 18, 30, 10</t>
+          <t>4, 17, 11, 18, 8</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>15 -&gt; 18 -&gt; 10 -&gt; 4 -&gt; 28 -&gt; 30 -&gt; 15</t>
+          <t>8 -&gt; 8 -&gt; 8 -&gt; 4 -&gt; 4 -&gt; 11 -&gt; 11 -&gt; 18 -&gt; 18 -&gt; 17</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1228</v>
+        <v>869</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.09990334510803223</v>
       </c>
     </row>
     <row r="7">
@@ -578,23 +578,23 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16, 20, 8, 14, 12</t>
+          <t>3, 4, 12, 23, 1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>5 -&gt; 14 -&gt; 20 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 5</t>
+          <t>21 -&gt; 23 -&gt; 23 -&gt; 12 -&gt; 12 -&gt; 4 -&gt; 4 -&gt; 3 -&gt; 3 -&gt; 1</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1072</v>
+        <v>1435</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.1154119968414307</v>
       </c>
     </row>
     <row r="8">
@@ -602,23 +602,23 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2, 25, 1, 9, 11</t>
+          <t>11, 15, 6, 25, 9</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14 -&gt; 11 -&gt; 9 -&gt; 25 -&gt; 1 -&gt; 2 -&gt; 14</t>
+          <t>25 -&gt; 25 -&gt; 25 -&gt; 6 -&gt; 6 -&gt; 9 -&gt; 9 -&gt; 11 -&gt; 11 -&gt; 15</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1537</v>
+        <v>614</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.1045219898223877</v>
       </c>
     </row>
     <row r="9">
@@ -626,23 +626,23 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6, 14, 3, 26, 17</t>
+          <t>3, 30, 21, 7, 14</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>18 -&gt; 14 -&gt; 17 -&gt; 26 -&gt; 3 -&gt; 6 -&gt; 18</t>
+          <t>6 -&gt; 3 -&gt; 3 -&gt; 30 -&gt; 30 -&gt; 7 -&gt; 7 -&gt; 14 -&gt; 14 -&gt; 21</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1379</v>
+        <v>1125</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.1311888694763184</v>
       </c>
     </row>
     <row r="10">
@@ -650,23 +650,23 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4, 14, 17, 3, 13</t>
+          <t>19, 10, 25, 26, 9</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7 -&gt; 4 -&gt; 3 -&gt; 13 -&gt; 17 -&gt; 14 -&gt; 7</t>
+          <t>19 -&gt; 19 -&gt; 19 -&gt; 10 -&gt; 10 -&gt; 9 -&gt; 9 -&gt; 26 -&gt; 26 -&gt; 25</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1089</v>
+        <v>848</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.1345524787902832</v>
       </c>
     </row>
     <row r="11">
@@ -674,23 +674,23 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>25, 19, 10, 11, 15</t>
+          <t>31, 9, 22, 28, 19</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>22 -&gt; 15 -&gt; 10 -&gt; 11 -&gt; 25 -&gt; 19 -&gt; 22</t>
+          <t>13 -&gt; 9 -&gt; 9 -&gt; 28 -&gt; 28 -&gt; 31 -&gt; 31 -&gt; 19 -&gt; 19 -&gt; 22</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1642</v>
+        <v>836</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.1235864162445068</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota_2/Ativos_Russas.xlsx
+++ b/Algoritmo_Rota_2/Ativos_Russas.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,239 +458,7199 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9, 19, 31, 4, 11</t>
+          <t>27, 11, 34, 37, 35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29 -&gt; 31 -&gt; 31 -&gt; 19 -&gt; 19 -&gt; 11 -&gt; 11 -&gt; 4 -&gt; 4 -&gt; 9</t>
+          <t>27 -&gt; 27 -&gt; 11 -&gt; 37 -&gt; 35 -&gt; 34 -&gt; 27</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1188</v>
+        <v>1414</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1214172840118408</v>
+        <v>0.1295664310455322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10, 19, 8, 26, 13</t>
+          <t>25, 9, 6, 2, 12</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9 -&gt; 13 -&gt; 13 -&gt; 19 -&gt; 19 -&gt; 10 -&gt; 10 -&gt; 8 -&gt; 8 -&gt; 26</t>
+          <t>25 -&gt; 25 -&gt; 6 -&gt; 2 -&gt; 12 -&gt; 9 -&gt; 25</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1172</v>
+        <v>1407</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1215567588806152</v>
+        <v>0.127565860748291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>6, 30, 21, 10, 4</t>
+          <t>7, 19, 9, 12, 14</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25 -&gt; 6 -&gt; 6 -&gt; 4 -&gt; 4 -&gt; 10 -&gt; 10 -&gt; 21 -&gt; 21 -&gt; 30</t>
+          <t>23 -&gt; 19 -&gt; 12 -&gt; 9 -&gt; 7 -&gt; 14 -&gt; 23</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1163</v>
+        <v>1898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1183443069458008</v>
+        <v>0.1507189273834229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>18, 24, 2, 8, 28</t>
+          <t>10, 30, 15, 37, 12</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5 -&gt; 2 -&gt; 2 -&gt; 8 -&gt; 8 -&gt; 28 -&gt; 28 -&gt; 24 -&gt; 24 -&gt; 18</t>
+          <t>17 -&gt; 30 -&gt; 37 -&gt; 12 -&gt; 10 -&gt; 15 -&gt; 17</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1196</v>
+        <v>1275</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1190147399902344</v>
+        <v>0.1493239402770996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4, 17, 11, 18, 8</t>
+          <t>28, 34, 15, 31, 20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8 -&gt; 8 -&gt; 8 -&gt; 4 -&gt; 4 -&gt; 11 -&gt; 11 -&gt; 18 -&gt; 18 -&gt; 17</t>
+          <t>29 -&gt; 34 -&gt; 28 -&gt; 31 -&gt; 20 -&gt; 15 -&gt; 29</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>869</v>
+        <v>1206</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09990334510803223</v>
+        <v>0.1534602642059326</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3, 4, 12, 23, 1</t>
+          <t>13, 12, 41, 20, 16</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21 -&gt; 23 -&gt; 23 -&gt; 12 -&gt; 12 -&gt; 4 -&gt; 4 -&gt; 3 -&gt; 3 -&gt; 1</t>
+          <t>27 -&gt; 13 -&gt; 12 -&gt; 16 -&gt; 20 -&gt; 41 -&gt; 27</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1435</v>
+        <v>1595</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1154119968414307</v>
+        <v>0.1496021747589111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11, 15, 6, 25, 9</t>
+          <t>39, 35, 6, 9, 12</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25 -&gt; 25 -&gt; 25 -&gt; 6 -&gt; 6 -&gt; 9 -&gt; 9 -&gt; 11 -&gt; 11 -&gt; 15</t>
+          <t>22 -&gt; 39 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 12 -&gt; 22</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>614</v>
+        <v>2344</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1045219898223877</v>
+        <v>0.1569850444793701</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3, 30, 21, 7, 14</t>
+          <t>24, 7, 9, 17, 42</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6 -&gt; 3 -&gt; 3 -&gt; 30 -&gt; 30 -&gt; 7 -&gt; 7 -&gt; 14 -&gt; 14 -&gt; 21</t>
+          <t>42 -&gt; 42 -&gt; 9 -&gt; 7 -&gt; 17 -&gt; 24 -&gt; 42</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1125</v>
+        <v>1876</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1311888694763184</v>
+        <v>0.1348979473114014</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>19, 10, 25, 26, 9</t>
+          <t>25, 35, 40, 36, 19</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19 -&gt; 19 -&gt; 19 -&gt; 10 -&gt; 10 -&gt; 9 -&gt; 9 -&gt; 26 -&gt; 26 -&gt; 25</t>
+          <t>20 -&gt; 40 -&gt; 36 -&gt; 35 -&gt; 25 -&gt; 19 -&gt; 20</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>848</v>
+        <v>1688</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1345524787902832</v>
+        <v>0.152522087097168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4, 28, 13, 11, 26</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24 -&gt; 28 -&gt; 26 -&gt; 4 -&gt; 11 -&gt; 13 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2070</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1127834320068359</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>39, 40, 26, 27, 35</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4 -&gt; 27 -&gt; 26 -&gt; 39 -&gt; 40 -&gt; 35 -&gt; 4</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.1176121234893799</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>14</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>17, 24, 36, 9, 31</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14 -&gt; 24 -&gt; 31 -&gt; 36 -&gt; 9 -&gt; 17 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.1126213073730469</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 34 -&gt; 23 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2215</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.1132261753082275</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 39</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>24 -&gt; 39 -&gt; 27 -&gt; 2 -&gt; 8 -&gt; 21 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2299</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.1146855354309082</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>6</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>32, 20, 17, 16, 1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6 -&gt; 32 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 1 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.1195974349975586</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>3, 19, 14, 16, 1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15 -&gt; 14 -&gt; 1 -&gt; 3 -&gt; 19 -&gt; 16 -&gt; 15</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1132626533508301</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>19</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>42, 8, 35, 17, 28</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>19 -&gt; 42 -&gt; 35 -&gt; 28 -&gt; 8 -&gt; 17 -&gt; 19</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1809</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1157605648040771</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>39, 11, 28, 18, 13</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2 -&gt; 13 -&gt; 11 -&gt; 18 -&gt; 39 -&gt; 28 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2383</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1142570972442627</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>14</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>39, 22, 24, 4, 17</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>14 -&gt; 22 -&gt; 24 -&gt; 39 -&gt; 17 -&gt; 4 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>2367</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.1116211414337158</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>13, 5, 39, 2, 12</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18 -&gt; 39 -&gt; 13 -&gt; 12 -&gt; 5 -&gt; 2 -&gt; 18</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2276</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1329338550567627</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>27</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2, 7, 24, 6, 1</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>27 -&gt; 24 -&gt; 7 -&gt; 1 -&gt; 2 -&gt; 6 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1330130100250244</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>24</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>19, 10, 38, 15, 34</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>24 -&gt; 19 -&gt; 15 -&gt; 10 -&gt; 34 -&gt; 38 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.1120271682739258</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>32</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>37, 34, 25, 3, 15</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>32 -&gt; 15 -&gt; 34 -&gt; 3 -&gt; 25 -&gt; 37 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.110645055770874</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>37, 4, 35, 6, 9</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7 -&gt; 37 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 4 -&gt; 7</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1802</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.1756753921508789</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>29</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>18, 41, 2, 12, 34</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 2 -&gt; 12 -&gt; 18 -&gt; 41 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2220</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1597104072570801</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>35</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>24, 6, 39, 42, 5</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>35 -&gt; 6 -&gt; 5 -&gt; 24 -&gt; 42 -&gt; 39 -&gt; 35</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1714</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1568622589111328</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>33</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16, 23, 9, 27, 6</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>33 -&gt; 6 -&gt; 27 -&gt; 23 -&gt; 16 -&gt; 9 -&gt; 33</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.1518144607543945</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>21</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>18, 16, 14, 12, 21</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 12 -&gt; 16 -&gt; 21</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.1315765380859375</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4, 3, 27, 2, 24</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3 -&gt; 3 -&gt; 27 -&gt; 24 -&gt; 4 -&gt; 2 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.1071674823760986</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>32</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>7, 39, 13, 22, 27</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>32 -&gt; 39 -&gt; 27 -&gt; 13 -&gt; 7 -&gt; 22 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>2189</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.1147019863128662</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" t="n">
+        <v>27</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>27, 11, 34, 37, 35</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>27 -&gt; 27 -&gt; 11 -&gt; 37 -&gt; 35 -&gt; 34 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1414</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.09534168243408203</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1</v>
+      </c>
+      <c r="B33" t="n">
+        <v>25</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>25, 9, 6, 2, 12</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25 -&gt; 25 -&gt; 6 -&gt; 2 -&gt; 12 -&gt; 9 -&gt; 25</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>1407</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.09577131271362305</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1</v>
+      </c>
+      <c r="B34" t="n">
+        <v>23</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>7, 19, 9, 12, 14</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>23 -&gt; 19 -&gt; 12 -&gt; 9 -&gt; 7 -&gt; 14 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1898</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1141533851623535</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1</v>
+      </c>
+      <c r="B35" t="n">
+        <v>17</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>10, 30, 15, 37, 12</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>17 -&gt; 30 -&gt; 37 -&gt; 12 -&gt; 10 -&gt; 15 -&gt; 17</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1275</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.115725040435791</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" t="n">
+        <v>29</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>28, 34, 15, 31, 20</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 28 -&gt; 31 -&gt; 20 -&gt; 15 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1206</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1136345863342285</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1</v>
+      </c>
+      <c r="B37" t="n">
+        <v>27</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>13, 12, 41, 20, 16</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>27 -&gt; 13 -&gt; 12 -&gt; 16 -&gt; 20 -&gt; 41 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1138665676116943</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" t="n">
+        <v>22</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>39, 35, 6, 9, 12</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>22 -&gt; 39 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 12 -&gt; 22</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>2344</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1161108016967773</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1</v>
+      </c>
+      <c r="B39" t="n">
+        <v>42</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>24, 7, 9, 17, 42</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>42 -&gt; 42 -&gt; 9 -&gt; 7 -&gt; 17 -&gt; 24 -&gt; 42</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>1876</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1018495559692383</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" t="n">
+        <v>20</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>25, 35, 40, 36, 19</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20 -&gt; 40 -&gt; 36 -&gt; 35 -&gt; 25 -&gt; 19 -&gt; 20</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1167378425598145</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1</v>
+      </c>
+      <c r="B41" t="n">
+        <v>24</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>4, 28, 13, 11, 26</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>24 -&gt; 28 -&gt; 26 -&gt; 4 -&gt; 11 -&gt; 13 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2070</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1153824329376221</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>39, 40, 26, 27, 35</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4 -&gt; 27 -&gt; 26 -&gt; 39 -&gt; 40 -&gt; 35 -&gt; 4</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1135642528533936</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1</v>
+      </c>
+      <c r="B43" t="n">
+        <v>14</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>17, 24, 36, 9, 31</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>14 -&gt; 24 -&gt; 31 -&gt; 36 -&gt; 9 -&gt; 17 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.1144297122955322</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1</v>
+      </c>
+      <c r="B44" t="n">
+        <v>12</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>12 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 34 -&gt; 23 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>2215</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.1154725551605225</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" t="n">
+        <v>24</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 39</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>24 -&gt; 39 -&gt; 27 -&gt; 2 -&gt; 8 -&gt; 21 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>2299</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.112415075302124</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>32, 20, 17, 16, 1</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6 -&gt; 32 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 1 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1187553405761719</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1</v>
+      </c>
+      <c r="B47" t="n">
+        <v>15</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>3, 19, 14, 16, 1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15 -&gt; 14 -&gt; 1 -&gt; 3 -&gt; 19 -&gt; 16 -&gt; 15</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.1132504940032959</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>1</v>
+      </c>
+      <c r="B48" t="n">
+        <v>19</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>42, 8, 35, 17, 28</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>19 -&gt; 42 -&gt; 35 -&gt; 28 -&gt; 8 -&gt; 17 -&gt; 19</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>1809</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1163477897644043</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>39, 11, 28, 18, 13</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2 -&gt; 13 -&gt; 11 -&gt; 18 -&gt; 39 -&gt; 28 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>2383</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.1261556148529053</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1</v>
+      </c>
+      <c r="B50" t="n">
+        <v>14</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>39, 22, 24, 4, 17</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>14 -&gt; 22 -&gt; 24 -&gt; 39 -&gt; 17 -&gt; 4 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>2367</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.1555476188659668</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1</v>
+      </c>
+      <c r="B51" t="n">
+        <v>18</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>13, 5, 39, 2, 12</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>18 -&gt; 39 -&gt; 13 -&gt; 12 -&gt; 5 -&gt; 2 -&gt; 18</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>2276</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.1528146266937256</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>1</v>
+      </c>
+      <c r="B52" t="n">
+        <v>27</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2, 7, 24, 6, 1</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>27 -&gt; 24 -&gt; 7 -&gt; 1 -&gt; 2 -&gt; 6 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.1522109508514404</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1</v>
+      </c>
+      <c r="B53" t="n">
+        <v>24</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>19, 10, 38, 15, 34</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>24 -&gt; 19 -&gt; 15 -&gt; 10 -&gt; 34 -&gt; 38 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.1500327587127686</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" t="n">
+        <v>32</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>37, 34, 25, 3, 15</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>32 -&gt; 15 -&gt; 34 -&gt; 3 -&gt; 25 -&gt; 37 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.1568973064422607</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>1</v>
+      </c>
+      <c r="B55" t="n">
+        <v>7</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>37, 4, 35, 6, 9</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7 -&gt; 37 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 4 -&gt; 7</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1802</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.1573810577392578</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1</v>
+      </c>
+      <c r="B56" t="n">
+        <v>29</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>18, 41, 2, 12, 34</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 2 -&gt; 12 -&gt; 18 -&gt; 41 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>2220</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.1589031219482422</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1</v>
+      </c>
+      <c r="B57" t="n">
+        <v>35</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>24, 6, 39, 42, 5</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>35 -&gt; 6 -&gt; 5 -&gt; 24 -&gt; 42 -&gt; 39 -&gt; 35</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>1714</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.1548049449920654</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1</v>
+      </c>
+      <c r="B58" t="n">
+        <v>33</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>16, 23, 9, 27, 6</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>33 -&gt; 6 -&gt; 27 -&gt; 23 -&gt; 16 -&gt; 9 -&gt; 33</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.1550803184509277</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" t="n">
+        <v>21</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>18, 16, 14, 12, 21</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>21 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 12 -&gt; 16 -&gt; 21</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.1306538581848145</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4, 3, 27, 2, 24</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3 -&gt; 3 -&gt; 27 -&gt; 24 -&gt; 4 -&gt; 2 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.1323609352111816</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>7, 39, 13, 22, 27</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>32 -&gt; 39 -&gt; 27 -&gt; 13 -&gt; 7 -&gt; 22 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2189</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.1539003849029541</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2</v>
+      </c>
+      <c r="B62" t="n">
+        <v>27</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>27, 11, 34, 37, 35</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>27 -&gt; 27 -&gt; 11 -&gt; 37 -&gt; 35 -&gt; 34 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1414</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.1302247047424316</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" t="n">
+        <v>25</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>25, 9, 6, 2, 12</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>25 -&gt; 25 -&gt; 6 -&gt; 2 -&gt; 12 -&gt; 9 -&gt; 25</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1407</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.1296014785766602</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2</v>
+      </c>
+      <c r="B64" t="n">
+        <v>23</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>7, 19, 9, 12, 14</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>23 -&gt; 19 -&gt; 12 -&gt; 9 -&gt; 7 -&gt; 14 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>1898</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.1135561466217041</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" t="n">
+        <v>17</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>10, 30, 15, 37, 12</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>17 -&gt; 30 -&gt; 37 -&gt; 12 -&gt; 10 -&gt; 15 -&gt; 17</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>1275</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.1137547492980957</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" t="n">
+        <v>29</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>28, 34, 15, 31, 20</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 28 -&gt; 31 -&gt; 20 -&gt; 15 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1206</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.1149868965148926</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2</v>
+      </c>
+      <c r="B67" t="n">
+        <v>27</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>13, 12, 41, 20, 16</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>27 -&gt; 13 -&gt; 12 -&gt; 16 -&gt; 20 -&gt; 41 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.1157338619232178</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2</v>
+      </c>
+      <c r="B68" t="n">
+        <v>22</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>39, 35, 6, 9, 12</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>22 -&gt; 39 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 12 -&gt; 22</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>2344</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.1157407760620117</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>42</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>24, 7, 9, 17, 42</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>42 -&gt; 42 -&gt; 9 -&gt; 7 -&gt; 17 -&gt; 24 -&gt; 42</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>1876</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.09922528266906738</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" t="n">
+        <v>20</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>25, 35, 40, 36, 19</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>20 -&gt; 40 -&gt; 36 -&gt; 35 -&gt; 25 -&gt; 19 -&gt; 20</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.1353394985198975</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2</v>
+      </c>
+      <c r="B71" t="n">
+        <v>24</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>4, 28, 13, 11, 26</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>24 -&gt; 28 -&gt; 26 -&gt; 4 -&gt; 11 -&gt; 13 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>2070</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.1154093742370605</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>39, 40, 26, 27, 35</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4 -&gt; 27 -&gt; 26 -&gt; 39 -&gt; 40 -&gt; 35 -&gt; 4</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.1161000728607178</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" t="n">
+        <v>14</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>17, 24, 36, 9, 31</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>14 -&gt; 24 -&gt; 31 -&gt; 36 -&gt; 9 -&gt; 17 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.1115007400512695</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2</v>
+      </c>
+      <c r="B74" t="n">
+        <v>12</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>12 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 34 -&gt; 23 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>2215</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.1151993274688721</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>2</v>
+      </c>
+      <c r="B75" t="n">
+        <v>24</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 39</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>24 -&gt; 39 -&gt; 27 -&gt; 2 -&gt; 8 -&gt; 21 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>2299</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.1141359806060791</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>32, 20, 17, 16, 1</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6 -&gt; 32 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 1 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.1124377250671387</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" t="n">
+        <v>15</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>3, 19, 14, 16, 1</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>15 -&gt; 14 -&gt; 1 -&gt; 3 -&gt; 19 -&gt; 16 -&gt; 15</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.1150944232940674</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>2</v>
+      </c>
+      <c r="B78" t="n">
+        <v>19</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>42, 8, 35, 17, 28</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>19 -&gt; 42 -&gt; 35 -&gt; 28 -&gt; 8 -&gt; 17 -&gt; 19</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>1809</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.1157371997833252</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>2</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>39, 11, 28, 18, 13</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2 -&gt; 13 -&gt; 11 -&gt; 18 -&gt; 39 -&gt; 28 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>2383</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.1135079860687256</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2</v>
+      </c>
+      <c r="B80" t="n">
+        <v>14</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>39, 22, 24, 4, 17</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>14 -&gt; 22 -&gt; 24 -&gt; 39 -&gt; 17 -&gt; 4 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>2367</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.1148397922515869</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" t="n">
+        <v>18</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>13, 5, 39, 2, 12</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>18 -&gt; 39 -&gt; 13 -&gt; 12 -&gt; 5 -&gt; 2 -&gt; 18</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>2276</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1172969341278076</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2</v>
+      </c>
+      <c r="B82" t="n">
+        <v>27</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2, 7, 24, 6, 1</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>27 -&gt; 24 -&gt; 7 -&gt; 1 -&gt; 2 -&gt; 6 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.1138010025024414</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2</v>
+      </c>
+      <c r="B83" t="n">
+        <v>24</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>19, 10, 38, 15, 34</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>24 -&gt; 19 -&gt; 15 -&gt; 10 -&gt; 34 -&gt; 38 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.1214072704315186</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2</v>
+      </c>
+      <c r="B84" t="n">
+        <v>32</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>37, 34, 25, 3, 15</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>32 -&gt; 15 -&gt; 34 -&gt; 3 -&gt; 25 -&gt; 37 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.1540474891662598</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>37, 4, 35, 6, 9</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7 -&gt; 37 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 4 -&gt; 7</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>1802</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.151996374130249</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2</v>
+      </c>
+      <c r="B86" t="n">
+        <v>29</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>18, 41, 2, 12, 34</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 2 -&gt; 12 -&gt; 18 -&gt; 41 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>2220</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.1578578948974609</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" t="n">
+        <v>35</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>24, 6, 39, 42, 5</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>35 -&gt; 6 -&gt; 5 -&gt; 24 -&gt; 42 -&gt; 39 -&gt; 35</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>1714</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.1583678722381592</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>2</v>
+      </c>
+      <c r="B88" t="n">
+        <v>33</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>16, 23, 9, 27, 6</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>33 -&gt; 6 -&gt; 27 -&gt; 23 -&gt; 16 -&gt; 9 -&gt; 33</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.1325571537017822</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>2</v>
+      </c>
+      <c r="B89" t="n">
+        <v>21</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>18, 16, 14, 12, 21</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>21 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 12 -&gt; 16 -&gt; 21</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.1038591861724854</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>2</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>4, 3, 27, 2, 24</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3 -&gt; 3 -&gt; 27 -&gt; 24 -&gt; 4 -&gt; 2 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.1207728385925293</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>2</v>
+      </c>
+      <c r="B91" t="n">
+        <v>32</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>7, 39, 13, 22, 27</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>32 -&gt; 39 -&gt; 27 -&gt; 13 -&gt; 7 -&gt; 22 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>2189</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.1588954925537109</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>3</v>
+      </c>
+      <c r="B92" t="n">
+        <v>27</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>27, 11, 34, 37, 35</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>27 -&gt; 27 -&gt; 11 -&gt; 37 -&gt; 35 -&gt; 34 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>1414</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.1323509216308594</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" t="n">
+        <v>25</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>25, 9, 6, 2, 12</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>25 -&gt; 25 -&gt; 6 -&gt; 2 -&gt; 12 -&gt; 9 -&gt; 25</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>1407</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.1323802471160889</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>3</v>
+      </c>
+      <c r="B94" t="n">
+        <v>23</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>7, 19, 9, 12, 14</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>23 -&gt; 19 -&gt; 12 -&gt; 9 -&gt; 7 -&gt; 14 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>1898</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.2223212718963623</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>3</v>
+      </c>
+      <c r="B95" t="n">
+        <v>17</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>10, 30, 15, 37, 12</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>17 -&gt; 30 -&gt; 37 -&gt; 12 -&gt; 10 -&gt; 15 -&gt; 17</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>1275</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.166431188583374</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>3</v>
+      </c>
+      <c r="B96" t="n">
+        <v>29</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>28, 34, 15, 31, 20</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 28 -&gt; 31 -&gt; 20 -&gt; 15 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>1206</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.1589326858520508</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>3</v>
+      </c>
+      <c r="B97" t="n">
+        <v>27</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>13, 12, 41, 20, 16</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>27 -&gt; 13 -&gt; 12 -&gt; 16 -&gt; 20 -&gt; 41 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.1555469036102295</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>3</v>
+      </c>
+      <c r="B98" t="n">
+        <v>22</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>39, 35, 6, 9, 12</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>22 -&gt; 39 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 12 -&gt; 22</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>2344</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-2.334722757339478</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>3</v>
+      </c>
+      <c r="B99" t="n">
+        <v>42</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>24, 7, 9, 17, 42</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>42 -&gt; 42 -&gt; 9 -&gt; 7 -&gt; 17 -&gt; 24 -&gt; 42</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>1876</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.1513864994049072</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>3</v>
+      </c>
+      <c r="B100" t="n">
+        <v>20</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>25, 35, 40, 36, 19</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>20 -&gt; 40 -&gt; 36 -&gt; 35 -&gt; 25 -&gt; 19 -&gt; 20</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.1159904003143311</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>3</v>
+      </c>
+      <c r="B101" t="n">
+        <v>24</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>4, 28, 13, 11, 26</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>24 -&gt; 28 -&gt; 26 -&gt; 4 -&gt; 11 -&gt; 13 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>2070</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.1170384883880615</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>3</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>39, 40, 26, 27, 35</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4 -&gt; 27 -&gt; 26 -&gt; 39 -&gt; 40 -&gt; 35 -&gt; 4</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.1150195598602295</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" t="n">
+        <v>14</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>17, 24, 36, 9, 31</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>14 -&gt; 24 -&gt; 31 -&gt; 36 -&gt; 9 -&gt; 17 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.1215267181396484</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" t="n">
+        <v>12</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>12 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 34 -&gt; 23 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>2215</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.1130483150482178</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>3</v>
+      </c>
+      <c r="B105" t="n">
+        <v>24</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 39</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>24 -&gt; 39 -&gt; 27 -&gt; 2 -&gt; 8 -&gt; 21 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>2299</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.1151065826416016</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>3</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>32, 20, 17, 16, 1</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>6 -&gt; 32 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 1 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.1453924179077148</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3</v>
+      </c>
+      <c r="B107" t="n">
+        <v>15</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>3, 19, 14, 16, 1</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>15 -&gt; 14 -&gt; 1 -&gt; 3 -&gt; 19 -&gt; 16 -&gt; 15</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.1537678241729736</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>3</v>
+      </c>
+      <c r="B108" t="n">
+        <v>19</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>42, 8, 35, 17, 28</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>19 -&gt; 42 -&gt; 35 -&gt; 28 -&gt; 8 -&gt; 17 -&gt; 19</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>1809</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.155034065246582</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>39, 11, 28, 18, 13</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2 -&gt; 13 -&gt; 11 -&gt; 18 -&gt; 39 -&gt; 28 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>2383</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.1565542221069336</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>3</v>
+      </c>
+      <c r="B110" t="n">
+        <v>14</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>39, 22, 24, 4, 17</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>14 -&gt; 22 -&gt; 24 -&gt; 39 -&gt; 17 -&gt; 4 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>2367</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.1533987522125244</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>3</v>
+      </c>
+      <c r="B111" t="n">
+        <v>18</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>13, 5, 39, 2, 12</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>18 -&gt; 39 -&gt; 13 -&gt; 12 -&gt; 5 -&gt; 2 -&gt; 18</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>2276</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.1564967632293701</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>3</v>
+      </c>
+      <c r="B112" t="n">
+        <v>27</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2, 7, 24, 6, 1</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>27 -&gt; 24 -&gt; 7 -&gt; 1 -&gt; 2 -&gt; 6 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.1522443294525146</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>3</v>
+      </c>
+      <c r="B113" t="n">
+        <v>24</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>19, 10, 38, 15, 34</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>24 -&gt; 19 -&gt; 15 -&gt; 10 -&gt; 34 -&gt; 38 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.1534862518310547</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>3</v>
+      </c>
+      <c r="B114" t="n">
+        <v>32</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>37, 34, 25, 3, 15</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>32 -&gt; 15 -&gt; 34 -&gt; 3 -&gt; 25 -&gt; 37 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.1539092063903809</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>3</v>
+      </c>
+      <c r="B115" t="n">
+        <v>7</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>37, 4, 35, 6, 9</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>7 -&gt; 37 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 4 -&gt; 7</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>1802</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.1516869068145752</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>3</v>
+      </c>
+      <c r="B116" t="n">
+        <v>29</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>18, 41, 2, 12, 34</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 2 -&gt; 12 -&gt; 18 -&gt; 41 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>2220</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.1579446792602539</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>3</v>
+      </c>
+      <c r="B117" t="n">
+        <v>35</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>24, 6, 39, 42, 5</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>35 -&gt; 6 -&gt; 5 -&gt; 24 -&gt; 42 -&gt; 39 -&gt; 35</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>1714</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.155895471572876</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>3</v>
+      </c>
+      <c r="B118" t="n">
+        <v>33</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>16, 23, 9, 27, 6</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>33 -&gt; 6 -&gt; 27 -&gt; 23 -&gt; 16 -&gt; 9 -&gt; 33</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.1509623527526855</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>3</v>
+      </c>
+      <c r="B119" t="n">
+        <v>21</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>18, 16, 14, 12, 21</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>21 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 12 -&gt; 16 -&gt; 21</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.1309700012207031</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>3</v>
+      </c>
+      <c r="B120" t="n">
+        <v>3</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>4, 3, 27, 2, 24</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3 -&gt; 3 -&gt; 27 -&gt; 24 -&gt; 4 -&gt; 2 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.1285567283630371</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>3</v>
+      </c>
+      <c r="B121" t="n">
+        <v>32</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>7, 39, 13, 22, 27</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>32 -&gt; 39 -&gt; 27 -&gt; 13 -&gt; 7 -&gt; 22 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>2189</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.1287910938262939</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>4</v>
+      </c>
+      <c r="B122" t="n">
+        <v>27</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>27, 11, 34, 37, 35</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>27 -&gt; 27 -&gt; 11 -&gt; 37 -&gt; 35 -&gt; 34 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>1414</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.09726977348327637</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>4</v>
+      </c>
+      <c r="B123" t="n">
+        <v>25</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>25, 9, 6, 2, 12</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>25 -&gt; 25 -&gt; 6 -&gt; 2 -&gt; 12 -&gt; 9 -&gt; 25</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>1407</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.1033093929290771</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>4</v>
+      </c>
+      <c r="B124" t="n">
+        <v>23</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>7, 19, 9, 12, 14</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>23 -&gt; 19 -&gt; 12 -&gt; 9 -&gt; 7 -&gt; 14 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>1898</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.1136045455932617</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>4</v>
+      </c>
+      <c r="B125" t="n">
+        <v>17</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>10, 30, 15, 37, 12</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>17 -&gt; 30 -&gt; 37 -&gt; 12 -&gt; 10 -&gt; 15 -&gt; 17</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>1275</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.1138970851898193</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>4</v>
+      </c>
+      <c r="B126" t="n">
+        <v>29</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>28, 34, 15, 31, 20</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 28 -&gt; 31 -&gt; 20 -&gt; 15 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>1206</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.1128833293914795</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>4</v>
+      </c>
+      <c r="B127" t="n">
+        <v>27</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>13, 12, 41, 20, 16</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>27 -&gt; 13 -&gt; 12 -&gt; 16 -&gt; 20 -&gt; 41 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.1180462837219238</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>4</v>
+      </c>
+      <c r="B128" t="n">
+        <v>22</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>39, 35, 6, 9, 12</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>22 -&gt; 39 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 12 -&gt; 22</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>2344</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.1132681369781494</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>4</v>
+      </c>
+      <c r="B129" t="n">
+        <v>42</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>24, 7, 9, 17, 42</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>42 -&gt; 42 -&gt; 9 -&gt; 7 -&gt; 17 -&gt; 24 -&gt; 42</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>1876</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.0998835563659668</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>4</v>
+      </c>
+      <c r="B130" t="n">
+        <v>20</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>25, 35, 40, 36, 19</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>20 -&gt; 40 -&gt; 36 -&gt; 35 -&gt; 25 -&gt; 19 -&gt; 20</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.1138179302215576</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>4</v>
+      </c>
+      <c r="B131" t="n">
+        <v>24</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>4, 28, 13, 11, 26</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>24 -&gt; 28 -&gt; 26 -&gt; 4 -&gt; 11 -&gt; 13 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>2070</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.1150448322296143</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>4</v>
+      </c>
+      <c r="B132" t="n">
+        <v>4</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>39, 40, 26, 27, 35</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>4 -&gt; 27 -&gt; 26 -&gt; 39 -&gt; 40 -&gt; 35 -&gt; 4</t>
+        </is>
+      </c>
+      <c r="E132" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.1159679889678955</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>4</v>
+      </c>
+      <c r="B133" t="n">
+        <v>14</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>17, 24, 36, 9, 31</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>14 -&gt; 24 -&gt; 31 -&gt; 36 -&gt; 9 -&gt; 17 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E133" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.1255097389221191</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>4</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>12 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 34 -&gt; 23 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="E134" t="n">
+        <v>2215</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.1543591022491455</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>4</v>
+      </c>
+      <c r="B135" t="n">
+        <v>24</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 39</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>24 -&gt; 39 -&gt; 27 -&gt; 2 -&gt; 8 -&gt; 21 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E135" t="n">
+        <v>2299</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.1557276248931885</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>4</v>
+      </c>
+      <c r="B136" t="n">
+        <v>6</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>32, 20, 17, 16, 1</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>6 -&gt; 32 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 1 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="E136" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.1557033061981201</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>4</v>
+      </c>
+      <c r="B137" t="n">
+        <v>15</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>3, 19, 14, 16, 1</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>15 -&gt; 14 -&gt; 1 -&gt; 3 -&gt; 19 -&gt; 16 -&gt; 15</t>
+        </is>
+      </c>
+      <c r="E137" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.1540286540985107</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>4</v>
+      </c>
+      <c r="B138" t="n">
+        <v>19</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>42, 8, 35, 17, 28</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>19 -&gt; 42 -&gt; 35 -&gt; 28 -&gt; 8 -&gt; 17 -&gt; 19</t>
+        </is>
+      </c>
+      <c r="E138" t="n">
+        <v>1809</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.1528186798095703</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>4</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>39, 11, 28, 18, 13</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2 -&gt; 13 -&gt; 11 -&gt; 18 -&gt; 39 -&gt; 28 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="E139" t="n">
+        <v>2383</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.155198335647583</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>4</v>
+      </c>
+      <c r="B140" t="n">
+        <v>14</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>39, 22, 24, 4, 17</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>14 -&gt; 22 -&gt; 24 -&gt; 39 -&gt; 17 -&gt; 4 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E140" t="n">
+        <v>2367</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.1519556045532227</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>4</v>
+      </c>
+      <c r="B141" t="n">
+        <v>18</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>13, 5, 39, 2, 12</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>18 -&gt; 39 -&gt; 13 -&gt; 12 -&gt; 5 -&gt; 2 -&gt; 18</t>
+        </is>
+      </c>
+      <c r="E141" t="n">
+        <v>2276</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.1242201328277588</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>4</v>
+      </c>
+      <c r="B142" t="n">
+        <v>27</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2, 7, 24, 6, 1</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>27 -&gt; 24 -&gt; 7 -&gt; 1 -&gt; 2 -&gt; 6 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E142" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.1122109889984131</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>4</v>
+      </c>
+      <c r="B143" t="n">
+        <v>24</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>19, 10, 38, 15, 34</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>24 -&gt; 19 -&gt; 15 -&gt; 10 -&gt; 34 -&gt; 38 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E143" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.114795446395874</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>4</v>
+      </c>
+      <c r="B144" t="n">
+        <v>32</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>37, 34, 25, 3, 15</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>32 -&gt; 15 -&gt; 34 -&gt; 3 -&gt; 25 -&gt; 37 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E144" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.1123037338256836</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>4</v>
+      </c>
+      <c r="B145" t="n">
+        <v>7</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>37, 4, 35, 6, 9</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>7 -&gt; 37 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 4 -&gt; 7</t>
+        </is>
+      </c>
+      <c r="E145" t="n">
+        <v>1802</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.1156527996063232</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>4</v>
+      </c>
+      <c r="B146" t="n">
+        <v>29</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>18, 41, 2, 12, 34</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 2 -&gt; 12 -&gt; 18 -&gt; 41 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E146" t="n">
+        <v>2220</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.1143002510070801</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>4</v>
+      </c>
+      <c r="B147" t="n">
+        <v>35</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>24, 6, 39, 42, 5</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>35 -&gt; 6 -&gt; 5 -&gt; 24 -&gt; 42 -&gt; 39 -&gt; 35</t>
+        </is>
+      </c>
+      <c r="E147" t="n">
+        <v>1714</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.1145284175872803</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>4</v>
+      </c>
+      <c r="B148" t="n">
+        <v>33</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>16, 23, 9, 27, 6</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>33 -&gt; 6 -&gt; 27 -&gt; 23 -&gt; 16 -&gt; 9 -&gt; 33</t>
+        </is>
+      </c>
+      <c r="E148" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.1170775890350342</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>4</v>
+      </c>
+      <c r="B149" t="n">
+        <v>21</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>18, 16, 14, 12, 21</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>21 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 12 -&gt; 16 -&gt; 21</t>
+        </is>
+      </c>
+      <c r="E149" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.09800457954406738</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>4</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>4, 3, 27, 2, 24</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>3 -&gt; 3 -&gt; 27 -&gt; 24 -&gt; 4 -&gt; 2 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="E150" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0975346565246582</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>4</v>
+      </c>
+      <c r="B151" t="n">
+        <v>32</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>7, 39, 13, 22, 27</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>32 -&gt; 39 -&gt; 27 -&gt; 13 -&gt; 7 -&gt; 22 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E151" t="n">
+        <v>2189</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.1155972480773926</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>5</v>
+      </c>
+      <c r="B152" t="n">
+        <v>27</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>27, 11, 34, 37, 35</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>27 -&gt; 27 -&gt; 11 -&gt; 37 -&gt; 35 -&gt; 34 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E152" t="n">
+        <v>1414</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.09708833694458008</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>5</v>
+      </c>
+      <c r="B153" t="n">
+        <v>25</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>25, 9, 6, 2, 12</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>25 -&gt; 25 -&gt; 6 -&gt; 2 -&gt; 12 -&gt; 9 -&gt; 25</t>
+        </is>
+      </c>
+      <c r="E153" t="n">
+        <v>1407</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.09886813163757324</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>5</v>
+      </c>
+      <c r="B154" t="n">
+        <v>23</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>7, 19, 9, 12, 14</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>23 -&gt; 19 -&gt; 12 -&gt; 9 -&gt; 7 -&gt; 14 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="E154" t="n">
+        <v>1898</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.115422248840332</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>5</v>
+      </c>
+      <c r="B155" t="n">
+        <v>17</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>10, 30, 15, 37, 12</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>17 -&gt; 30 -&gt; 37 -&gt; 12 -&gt; 10 -&gt; 15 -&gt; 17</t>
+        </is>
+      </c>
+      <c r="E155" t="n">
+        <v>1275</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.1154379844665527</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>5</v>
+      </c>
+      <c r="B156" t="n">
+        <v>29</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>28, 34, 15, 31, 20</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 28 -&gt; 31 -&gt; 20 -&gt; 15 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E156" t="n">
+        <v>1206</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.129892110824585</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>5</v>
+      </c>
+      <c r="B157" t="n">
+        <v>27</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>13, 12, 41, 20, 16</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>27 -&gt; 13 -&gt; 12 -&gt; 16 -&gt; 20 -&gt; 41 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E157" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.115807056427002</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>5</v>
+      </c>
+      <c r="B158" t="n">
+        <v>22</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>39, 35, 6, 9, 12</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>22 -&gt; 39 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 12 -&gt; 22</t>
+        </is>
+      </c>
+      <c r="E158" t="n">
+        <v>2344</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.1178238391876221</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>5</v>
+      </c>
+      <c r="B159" t="n">
+        <v>42</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>24, 7, 9, 17, 42</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>42 -&gt; 42 -&gt; 9 -&gt; 7 -&gt; 17 -&gt; 24 -&gt; 42</t>
+        </is>
+      </c>
+      <c r="E159" t="n">
+        <v>1876</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.1628844738006592</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>5</v>
+      </c>
+      <c r="B160" t="n">
+        <v>20</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>25, 35, 40, 36, 19</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>20 -&gt; 40 -&gt; 36 -&gt; 35 -&gt; 25 -&gt; 19 -&gt; 20</t>
+        </is>
+      </c>
+      <c r="E160" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.1925709247589111</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>5</v>
+      </c>
+      <c r="B161" t="n">
+        <v>24</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>4, 28, 13, 11, 26</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>24 -&gt; 28 -&gt; 26 -&gt; 4 -&gt; 11 -&gt; 13 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E161" t="n">
+        <v>2070</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.1545116901397705</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>5</v>
+      </c>
+      <c r="B162" t="n">
+        <v>4</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>39, 40, 26, 27, 35</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>4 -&gt; 27 -&gt; 26 -&gt; 39 -&gt; 40 -&gt; 35 -&gt; 4</t>
+        </is>
+      </c>
+      <c r="E162" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.1679441928863525</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>5</v>
+      </c>
+      <c r="B163" t="n">
+        <v>14</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>17, 24, 36, 9, 31</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>14 -&gt; 24 -&gt; 31 -&gt; 36 -&gt; 9 -&gt; 17 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E163" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.1672322750091553</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>5</v>
+      </c>
+      <c r="B164" t="n">
+        <v>12</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>12 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 34 -&gt; 23 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="E164" t="n">
+        <v>2215</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.1656684875488281</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>5</v>
+      </c>
+      <c r="B165" t="n">
+        <v>24</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 39</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>24 -&gt; 39 -&gt; 27 -&gt; 2 -&gt; 8 -&gt; 21 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E165" t="n">
+        <v>2299</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.1565995216369629</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>5</v>
+      </c>
+      <c r="B166" t="n">
+        <v>6</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>32, 20, 17, 16, 1</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>6 -&gt; 32 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 1 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="E166" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.1564123630523682</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>5</v>
+      </c>
+      <c r="B167" t="n">
+        <v>15</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>3, 19, 14, 16, 1</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>15 -&gt; 14 -&gt; 1 -&gt; 3 -&gt; 19 -&gt; 16 -&gt; 15</t>
+        </is>
+      </c>
+      <c r="E167" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.1761479377746582</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>5</v>
+      </c>
+      <c r="B168" t="n">
+        <v>19</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>42, 8, 35, 17, 28</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>19 -&gt; 42 -&gt; 35 -&gt; 28 -&gt; 8 -&gt; 17 -&gt; 19</t>
+        </is>
+      </c>
+      <c r="E168" t="n">
+        <v>1809</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.1558797359466553</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>5</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>39, 11, 28, 18, 13</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2 -&gt; 13 -&gt; 11 -&gt; 18 -&gt; 39 -&gt; 28 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="E169" t="n">
+        <v>2383</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.1596925258636475</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>5</v>
+      </c>
+      <c r="B170" t="n">
+        <v>14</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>39, 22, 24, 4, 17</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>14 -&gt; 22 -&gt; 24 -&gt; 39 -&gt; 17 -&gt; 4 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E170" t="n">
+        <v>2367</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.1568546295166016</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>5</v>
+      </c>
+      <c r="B171" t="n">
+        <v>18</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>13, 5, 39, 2, 12</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>18 -&gt; 39 -&gt; 13 -&gt; 12 -&gt; 5 -&gt; 2 -&gt; 18</t>
+        </is>
+      </c>
+      <c r="E171" t="n">
+        <v>2276</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.1631522178649902</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>5</v>
+      </c>
+      <c r="B172" t="n">
+        <v>27</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2, 7, 24, 6, 1</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>27 -&gt; 24 -&gt; 7 -&gt; 1 -&gt; 2 -&gt; 6 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E172" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.1560966968536377</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>5</v>
+      </c>
+      <c r="B173" t="n">
+        <v>24</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>19, 10, 38, 15, 34</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>24 -&gt; 19 -&gt; 15 -&gt; 10 -&gt; 34 -&gt; 38 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E173" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.1630599498748779</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>5</v>
+      </c>
+      <c r="B174" t="n">
+        <v>32</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>37, 34, 25, 3, 15</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>32 -&gt; 15 -&gt; 34 -&gt; 3 -&gt; 25 -&gt; 37 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E174" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.1618351936340332</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>5</v>
+      </c>
+      <c r="B175" t="n">
+        <v>7</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>37, 4, 35, 6, 9</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>7 -&gt; 37 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 4 -&gt; 7</t>
+        </is>
+      </c>
+      <c r="E175" t="n">
+        <v>1802</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.1622698307037354</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>5</v>
+      </c>
+      <c r="B176" t="n">
+        <v>29</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>18, 41, 2, 12, 34</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 2 -&gt; 12 -&gt; 18 -&gt; 41 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E176" t="n">
+        <v>2220</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.1447653770446777</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>5</v>
+      </c>
+      <c r="B177" t="n">
+        <v>35</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>24, 6, 39, 42, 5</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>35 -&gt; 6 -&gt; 5 -&gt; 24 -&gt; 42 -&gt; 39 -&gt; 35</t>
+        </is>
+      </c>
+      <c r="E177" t="n">
+        <v>1714</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.1245145797729492</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>5</v>
+      </c>
+      <c r="B178" t="n">
+        <v>33</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>16, 23, 9, 27, 6</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>33 -&gt; 6 -&gt; 27 -&gt; 23 -&gt; 16 -&gt; 9 -&gt; 33</t>
+        </is>
+      </c>
+      <c r="E178" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.1158881187438965</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>5</v>
+      </c>
+      <c r="B179" t="n">
+        <v>21</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>18, 16, 14, 12, 21</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>21 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 12 -&gt; 16 -&gt; 21</t>
+        </is>
+      </c>
+      <c r="E179" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.1008515357971191</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>5</v>
+      </c>
+      <c r="B180" t="n">
+        <v>3</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>4, 3, 27, 2, 24</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>3 -&gt; 3 -&gt; 27 -&gt; 24 -&gt; 4 -&gt; 2 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="E180" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.1001641750335693</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>5</v>
+      </c>
+      <c r="B181" t="n">
+        <v>32</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>7, 39, 13, 22, 27</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>32 -&gt; 39 -&gt; 27 -&gt; 13 -&gt; 7 -&gt; 22 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E181" t="n">
+        <v>2189</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.1190054416656494</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>6</v>
+      </c>
+      <c r="B182" t="n">
+        <v>27</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>27, 11, 34, 37, 35</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>27 -&gt; 27 -&gt; 11 -&gt; 37 -&gt; 35 -&gt; 34 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E182" t="n">
+        <v>1414</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.1005175113677979</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>6</v>
+      </c>
+      <c r="B183" t="n">
+        <v>25</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>25, 9, 6, 2, 12</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>25 -&gt; 25 -&gt; 6 -&gt; 2 -&gt; 12 -&gt; 9 -&gt; 25</t>
+        </is>
+      </c>
+      <c r="E183" t="n">
+        <v>1407</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.1027841567993164</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>6</v>
+      </c>
+      <c r="B184" t="n">
+        <v>23</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>7, 19, 9, 12, 14</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>23 -&gt; 19 -&gt; 12 -&gt; 9 -&gt; 7 -&gt; 14 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="E184" t="n">
+        <v>1898</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.1177158355712891</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>6</v>
+      </c>
+      <c r="B185" t="n">
+        <v>17</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>10, 30, 15, 37, 12</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>17 -&gt; 30 -&gt; 37 -&gt; 12 -&gt; 10 -&gt; 15 -&gt; 17</t>
+        </is>
+      </c>
+      <c r="E185" t="n">
+        <v>1275</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.1181013584136963</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>6</v>
+      </c>
+      <c r="B186" t="n">
+        <v>29</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>28, 34, 15, 31, 20</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 28 -&gt; 31 -&gt; 20 -&gt; 15 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E186" t="n">
+        <v>1206</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.1169722080230713</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>6</v>
+      </c>
+      <c r="B187" t="n">
+        <v>27</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>13, 12, 41, 20, 16</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>27 -&gt; 13 -&gt; 12 -&gt; 16 -&gt; 20 -&gt; 41 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E187" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.1195197105407715</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>6</v>
+      </c>
+      <c r="B188" t="n">
+        <v>22</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>39, 35, 6, 9, 12</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>22 -&gt; 39 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 12 -&gt; 22</t>
+        </is>
+      </c>
+      <c r="E188" t="n">
+        <v>2344</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.1178414821624756</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>6</v>
+      </c>
+      <c r="B189" t="n">
+        <v>42</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>24, 7, 9, 17, 42</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>42 -&gt; 42 -&gt; 9 -&gt; 7 -&gt; 17 -&gt; 24 -&gt; 42</t>
+        </is>
+      </c>
+      <c r="E189" t="n">
+        <v>1876</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.09957146644592285</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>6</v>
+      </c>
+      <c r="B190" t="n">
+        <v>20</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>25, 35, 40, 36, 19</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>20 -&gt; 40 -&gt; 36 -&gt; 35 -&gt; 25 -&gt; 19 -&gt; 20</t>
+        </is>
+      </c>
+      <c r="E190" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.1138415336608887</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>6</v>
+      </c>
+      <c r="B191" t="n">
+        <v>24</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>4, 28, 13, 11, 26</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>24 -&gt; 28 -&gt; 26 -&gt; 4 -&gt; 11 -&gt; 13 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E191" t="n">
+        <v>2070</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.1167948246002197</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>6</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>39, 40, 26, 27, 35</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>4 -&gt; 27 -&gt; 26 -&gt; 39 -&gt; 40 -&gt; 35 -&gt; 4</t>
+        </is>
+      </c>
+      <c r="E192" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.1156668663024902</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>6</v>
+      </c>
+      <c r="B193" t="n">
+        <v>14</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>17, 24, 36, 9, 31</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>14 -&gt; 24 -&gt; 31 -&gt; 36 -&gt; 9 -&gt; 17 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E193" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.1188087463378906</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>6</v>
+      </c>
+      <c r="B194" t="n">
+        <v>12</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>12 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 34 -&gt; 23 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="E194" t="n">
+        <v>2215</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.1167104244232178</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>6</v>
+      </c>
+      <c r="B195" t="n">
+        <v>24</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 39</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>24 -&gt; 39 -&gt; 27 -&gt; 2 -&gt; 8 -&gt; 21 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E195" t="n">
+        <v>2299</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.1215124130249023</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>6</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>32, 20, 17, 16, 1</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>6 -&gt; 32 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 1 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="E196" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.1194164752960205</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>6</v>
+      </c>
+      <c r="B197" t="n">
+        <v>15</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>3, 19, 14, 16, 1</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>15 -&gt; 14 -&gt; 1 -&gt; 3 -&gt; 19 -&gt; 16 -&gt; 15</t>
+        </is>
+      </c>
+      <c r="E197" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.1197121143341064</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>6</v>
+      </c>
+      <c r="B198" t="n">
+        <v>19</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>42, 8, 35, 17, 28</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>19 -&gt; 42 -&gt; 35 -&gt; 28 -&gt; 8 -&gt; 17 -&gt; 19</t>
+        </is>
+      </c>
+      <c r="E198" t="n">
+        <v>1809</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.1175122261047363</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>6</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>39, 11, 28, 18, 13</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2 -&gt; 13 -&gt; 11 -&gt; 18 -&gt; 39 -&gt; 28 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="E199" t="n">
+        <v>2383</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.1215395927429199</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>6</v>
+      </c>
+      <c r="B200" t="n">
+        <v>14</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>39, 22, 24, 4, 17</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>14 -&gt; 22 -&gt; 24 -&gt; 39 -&gt; 17 -&gt; 4 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E200" t="n">
+        <v>2367</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.1170144081115723</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>6</v>
+      </c>
+      <c r="B201" t="n">
+        <v>18</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>13, 5, 39, 2, 12</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>18 -&gt; 39 -&gt; 13 -&gt; 12 -&gt; 5 -&gt; 2 -&gt; 18</t>
+        </is>
+      </c>
+      <c r="E201" t="n">
+        <v>2276</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.1208570003509521</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>6</v>
+      </c>
+      <c r="B202" t="n">
+        <v>27</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2, 7, 24, 6, 1</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>27 -&gt; 24 -&gt; 7 -&gt; 1 -&gt; 2 -&gt; 6 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E202" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.1166329383850098</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>6</v>
+      </c>
+      <c r="B203" t="n">
+        <v>24</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>19, 10, 38, 15, 34</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>24 -&gt; 19 -&gt; 15 -&gt; 10 -&gt; 34 -&gt; 38 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E203" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.1196153163909912</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>6</v>
+      </c>
+      <c r="B204" t="n">
+        <v>32</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>37, 34, 25, 3, 15</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>32 -&gt; 15 -&gt; 34 -&gt; 3 -&gt; 25 -&gt; 37 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E204" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.1192562580108643</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>6</v>
+      </c>
+      <c r="B205" t="n">
+        <v>7</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>37, 4, 35, 6, 9</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>7 -&gt; 37 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 4 -&gt; 7</t>
+        </is>
+      </c>
+      <c r="E205" t="n">
+        <v>1802</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.1196396350860596</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>6</v>
+      </c>
+      <c r="B206" t="n">
+        <v>29</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>18, 41, 2, 12, 34</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 2 -&gt; 12 -&gt; 18 -&gt; 41 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E206" t="n">
+        <v>2220</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.1196579933166504</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>6</v>
+      </c>
+      <c r="B207" t="n">
+        <v>35</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>24, 6, 39, 42, 5</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>35 -&gt; 6 -&gt; 5 -&gt; 24 -&gt; 42 -&gt; 39 -&gt; 35</t>
+        </is>
+      </c>
+      <c r="E207" t="n">
+        <v>1714</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.1202504634857178</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>6</v>
+      </c>
+      <c r="B208" t="n">
+        <v>33</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>16, 23, 9, 27, 6</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>33 -&gt; 6 -&gt; 27 -&gt; 23 -&gt; 16 -&gt; 9 -&gt; 33</t>
+        </is>
+      </c>
+      <c r="E208" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.1190836429595947</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>6</v>
+      </c>
+      <c r="B209" t="n">
+        <v>21</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>18, 16, 14, 12, 21</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>21 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 12 -&gt; 16 -&gt; 21</t>
+        </is>
+      </c>
+      <c r="E209" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.1167781352996826</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>6</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>4, 3, 27, 2, 24</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>3 -&gt; 3 -&gt; 27 -&gt; 24 -&gt; 4 -&gt; 2 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="E210" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.1319732666015625</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>6</v>
+      </c>
+      <c r="B211" t="n">
+        <v>32</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>7, 39, 13, 22, 27</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>32 -&gt; 39 -&gt; 27 -&gt; 13 -&gt; 7 -&gt; 22 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E211" t="n">
+        <v>2189</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.1551592350006104</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>7</v>
+      </c>
+      <c r="B212" t="n">
+        <v>27</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>27, 11, 34, 37, 35</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>27 -&gt; 27 -&gt; 11 -&gt; 37 -&gt; 35 -&gt; 34 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E212" t="n">
+        <v>1414</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.135148286819458</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>7</v>
+      </c>
+      <c r="B213" t="n">
+        <v>25</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>25, 9, 6, 2, 12</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>25 -&gt; 25 -&gt; 6 -&gt; 2 -&gt; 12 -&gt; 9 -&gt; 25</t>
+        </is>
+      </c>
+      <c r="E213" t="n">
+        <v>1407</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.1338026523590088</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>7</v>
+      </c>
+      <c r="B214" t="n">
+        <v>23</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>7, 19, 9, 12, 14</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>23 -&gt; 19 -&gt; 12 -&gt; 9 -&gt; 7 -&gt; 14 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="E214" t="n">
+        <v>1898</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0.1532430648803711</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>7</v>
+      </c>
+      <c r="B215" t="n">
+        <v>17</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>10, 30, 15, 37, 12</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>17 -&gt; 30 -&gt; 37 -&gt; 12 -&gt; 10 -&gt; 15 -&gt; 17</t>
+        </is>
+      </c>
+      <c r="E215" t="n">
+        <v>1275</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0.1522271633148193</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>7</v>
+      </c>
+      <c r="B216" t="n">
+        <v>29</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>28, 34, 15, 31, 20</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 28 -&gt; 31 -&gt; 20 -&gt; 15 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E216" t="n">
+        <v>1206</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0.1513855457305908</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>7</v>
+      </c>
+      <c r="B217" t="n">
+        <v>27</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>13, 12, 41, 20, 16</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>27 -&gt; 13 -&gt; 12 -&gt; 16 -&gt; 20 -&gt; 41 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E217" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0.1537179946899414</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>7</v>
+      </c>
+      <c r="B218" t="n">
+        <v>22</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>39, 35, 6, 9, 12</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>22 -&gt; 39 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 12 -&gt; 22</t>
+        </is>
+      </c>
+      <c r="E218" t="n">
+        <v>2344</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0.154252290725708</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>7</v>
+      </c>
+      <c r="B219" t="n">
+        <v>42</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>24, 7, 9, 17, 42</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>42 -&gt; 42 -&gt; 9 -&gt; 7 -&gt; 17 -&gt; 24 -&gt; 42</t>
+        </is>
+      </c>
+      <c r="E219" t="n">
+        <v>1876</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0.1349427700042725</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>7</v>
+      </c>
+      <c r="B220" t="n">
+        <v>20</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>25, 35, 40, 36, 19</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>20 -&gt; 40 -&gt; 36 -&gt; 35 -&gt; 25 -&gt; 19 -&gt; 20</t>
+        </is>
+      </c>
+      <c r="E220" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0.1544821262359619</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>7</v>
+      </c>
+      <c r="B221" t="n">
+        <v>24</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>4, 28, 13, 11, 26</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>24 -&gt; 28 -&gt; 26 -&gt; 4 -&gt; 11 -&gt; 13 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E221" t="n">
+        <v>2070</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0.1542873382568359</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>7</v>
+      </c>
+      <c r="B222" t="n">
+        <v>4</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>39, 40, 26, 27, 35</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>4 -&gt; 27 -&gt; 26 -&gt; 39 -&gt; 40 -&gt; 35 -&gt; 4</t>
+        </is>
+      </c>
+      <c r="E222" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0.1525235176086426</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>7</v>
+      </c>
+      <c r="B223" t="n">
+        <v>14</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>17, 24, 36, 9, 31</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>14 -&gt; 24 -&gt; 31 -&gt; 36 -&gt; 9 -&gt; 17 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E223" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0.1551098823547363</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>7</v>
+      </c>
+      <c r="B224" t="n">
+        <v>12</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>12 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 34 -&gt; 23 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="E224" t="n">
+        <v>2215</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0.1538596153259277</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>7</v>
+      </c>
+      <c r="B225" t="n">
+        <v>24</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 39</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>24 -&gt; 39 -&gt; 27 -&gt; 2 -&gt; 8 -&gt; 21 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E225" t="n">
+        <v>2299</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0.1558761596679688</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>7</v>
+      </c>
+      <c r="B226" t="n">
+        <v>6</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>32, 20, 17, 16, 1</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>6 -&gt; 32 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 1 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="E226" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0.1592457294464111</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>7</v>
+      </c>
+      <c r="B227" t="n">
+        <v>15</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>3, 19, 14, 16, 1</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>15 -&gt; 14 -&gt; 1 -&gt; 3 -&gt; 19 -&gt; 16 -&gt; 15</t>
+        </is>
+      </c>
+      <c r="E227" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0.1546006202697754</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>7</v>
+      </c>
+      <c r="B228" t="n">
+        <v>19</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>42, 8, 35, 17, 28</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>19 -&gt; 42 -&gt; 35 -&gt; 28 -&gt; 8 -&gt; 17 -&gt; 19</t>
+        </is>
+      </c>
+      <c r="E228" t="n">
+        <v>1809</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0.153552770614624</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>7</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>39, 11, 28, 18, 13</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2 -&gt; 13 -&gt; 11 -&gt; 18 -&gt; 39 -&gt; 28 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="E229" t="n">
+        <v>2383</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0.1564309597015381</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>7</v>
+      </c>
+      <c r="B230" t="n">
+        <v>14</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>39, 22, 24, 4, 17</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>14 -&gt; 22 -&gt; 24 -&gt; 39 -&gt; 17 -&gt; 4 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E230" t="n">
+        <v>2367</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0.1527092456817627</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>7</v>
+      </c>
+      <c r="B231" t="n">
+        <v>18</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>13, 5, 39, 2, 12</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>18 -&gt; 39 -&gt; 13 -&gt; 12 -&gt; 5 -&gt; 2 -&gt; 18</t>
+        </is>
+      </c>
+      <c r="E231" t="n">
+        <v>2276</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.1580796241760254</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>7</v>
+      </c>
+      <c r="B232" t="n">
+        <v>27</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2, 7, 24, 6, 1</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>27 -&gt; 24 -&gt; 7 -&gt; 1 -&gt; 2 -&gt; 6 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E232" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0.1538209915161133</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>7</v>
+      </c>
+      <c r="B233" t="n">
+        <v>24</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>19, 10, 38, 15, 34</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>24 -&gt; 19 -&gt; 15 -&gt; 10 -&gt; 34 -&gt; 38 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E233" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0.1565718650817871</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>7</v>
+      </c>
+      <c r="B234" t="n">
+        <v>32</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>37, 34, 25, 3, 15</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>32 -&gt; 15 -&gt; 34 -&gt; 3 -&gt; 25 -&gt; 37 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E234" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0.1553719043731689</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>7</v>
+      </c>
+      <c r="B235" t="n">
+        <v>7</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>37, 4, 35, 6, 9</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>7 -&gt; 37 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 4 -&gt; 7</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>1802</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0.1557750701904297</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>7</v>
+      </c>
+      <c r="B236" t="n">
+        <v>29</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>18, 41, 2, 12, 34</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 2 -&gt; 12 -&gt; 18 -&gt; 41 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>2220</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0.1567654609680176</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>7</v>
+      </c>
+      <c r="B237" t="n">
+        <v>35</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>24, 6, 39, 42, 5</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>35 -&gt; 6 -&gt; 5 -&gt; 24 -&gt; 42 -&gt; 39 -&gt; 35</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>1714</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0.1588876247406006</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>7</v>
+      </c>
+      <c r="B238" t="n">
+        <v>33</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>16, 23, 9, 27, 6</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>33 -&gt; 6 -&gt; 27 -&gt; 23 -&gt; 16 -&gt; 9 -&gt; 33</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0.1556081771850586</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>7</v>
+      </c>
+      <c r="B239" t="n">
+        <v>21</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>18, 16, 14, 12, 21</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>21 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 12 -&gt; 16 -&gt; 21</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0.1351830959320068</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>7</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>4, 3, 27, 2, 24</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>3 -&gt; 3 -&gt; 27 -&gt; 24 -&gt; 4 -&gt; 2 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0.1320767402648926</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>7</v>
+      </c>
+      <c r="B241" t="n">
+        <v>32</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>7, 39, 13, 22, 27</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>32 -&gt; 39 -&gt; 27 -&gt; 13 -&gt; 7 -&gt; 22 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>2189</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0.1564514636993408</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>8</v>
+      </c>
+      <c r="B242" t="n">
+        <v>27</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>27, 11, 34, 37, 35</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>27 -&gt; 27 -&gt; 11 -&gt; 37 -&gt; 35 -&gt; 34 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>1414</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0.132892370223999</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>8</v>
+      </c>
+      <c r="B243" t="n">
+        <v>25</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>25, 9, 6, 2, 12</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>25 -&gt; 25 -&gt; 6 -&gt; 2 -&gt; 12 -&gt; 9 -&gt; 25</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>1407</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0.1333141326904297</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>8</v>
+      </c>
+      <c r="B244" t="n">
+        <v>23</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>7, 19, 9, 12, 14</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>23 -&gt; 19 -&gt; 12 -&gt; 9 -&gt; 7 -&gt; 14 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>1898</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0.1536242961883545</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>8</v>
+      </c>
+      <c r="B245" t="n">
+        <v>17</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>10, 30, 15, 37, 12</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>17 -&gt; 30 -&gt; 37 -&gt; 12 -&gt; 10 -&gt; 15 -&gt; 17</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>1275</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.1533136367797852</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>8</v>
+      </c>
+      <c r="B246" t="n">
+        <v>29</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>28, 34, 15, 31, 20</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 28 -&gt; 31 -&gt; 20 -&gt; 15 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>1206</v>
+      </c>
+      <c r="F246" t="n">
+        <v>0.1521201133728027</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>8</v>
+      </c>
+      <c r="B247" t="n">
+        <v>27</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>13, 12, 41, 20, 16</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>27 -&gt; 13 -&gt; 12 -&gt; 16 -&gt; 20 -&gt; 41 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0.1538512706756592</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>8</v>
+      </c>
+      <c r="B248" t="n">
+        <v>22</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>39, 35, 6, 9, 12</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>22 -&gt; 39 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 12 -&gt; 22</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>2344</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0.1542484760284424</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>8</v>
+      </c>
+      <c r="B249" t="n">
+        <v>42</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>24, 7, 9, 17, 42</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>42 -&gt; 42 -&gt; 9 -&gt; 7 -&gt; 17 -&gt; 24 -&gt; 42</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>1876</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0.1353647708892822</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>8</v>
+      </c>
+      <c r="B250" t="n">
+        <v>20</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>25, 35, 40, 36, 19</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>20 -&gt; 40 -&gt; 36 -&gt; 35 -&gt; 25 -&gt; 19 -&gt; 20</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0.1542832851409912</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>8</v>
+      </c>
+      <c r="B251" t="n">
+        <v>24</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>4, 28, 13, 11, 26</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>24 -&gt; 28 -&gt; 26 -&gt; 4 -&gt; 11 -&gt; 13 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>2070</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0.1553912162780762</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>8</v>
+      </c>
+      <c r="B252" t="n">
+        <v>4</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>39, 40, 26, 27, 35</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>4 -&gt; 27 -&gt; 26 -&gt; 39 -&gt; 40 -&gt; 35 -&gt; 4</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0.1520452499389648</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>8</v>
+      </c>
+      <c r="B253" t="n">
+        <v>14</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>17, 24, 36, 9, 31</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>14 -&gt; 24 -&gt; 31 -&gt; 36 -&gt; 9 -&gt; 17 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E253" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0.1613719463348389</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>8</v>
+      </c>
+      <c r="B254" t="n">
+        <v>12</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>12 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 34 -&gt; 23 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="E254" t="n">
+        <v>2215</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0.154815673828125</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>8</v>
+      </c>
+      <c r="B255" t="n">
+        <v>24</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 39</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>24 -&gt; 39 -&gt; 27 -&gt; 2 -&gt; 8 -&gt; 21 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E255" t="n">
+        <v>2299</v>
+      </c>
+      <c r="F255" t="n">
+        <v>0.1562674045562744</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>8</v>
+      </c>
+      <c r="B256" t="n">
+        <v>6</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>32, 20, 17, 16, 1</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>6 -&gt; 32 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 1 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="E256" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0.1538729667663574</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>8</v>
+      </c>
+      <c r="B257" t="n">
+        <v>15</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3, 19, 14, 16, 1</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>15 -&gt; 14 -&gt; 1 -&gt; 3 -&gt; 19 -&gt; 16 -&gt; 15</t>
+        </is>
+      </c>
+      <c r="E257" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F257" t="n">
+        <v>0.1533520221710205</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>8</v>
+      </c>
+      <c r="B258" t="n">
+        <v>19</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>42, 8, 35, 17, 28</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>19 -&gt; 42 -&gt; 35 -&gt; 28 -&gt; 8 -&gt; 17 -&gt; 19</t>
+        </is>
+      </c>
+      <c r="E258" t="n">
+        <v>1809</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0.1521375179290771</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>8</v>
+      </c>
+      <c r="B259" t="n">
+        <v>2</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>39, 11, 28, 18, 13</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2 -&gt; 13 -&gt; 11 -&gt; 18 -&gt; 39 -&gt; 28 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="E259" t="n">
+        <v>2383</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0.1552731990814209</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>8</v>
+      </c>
+      <c r="B260" t="n">
+        <v>14</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>39, 22, 24, 4, 17</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>14 -&gt; 22 -&gt; 24 -&gt; 39 -&gt; 17 -&gt; 4 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E260" t="n">
+        <v>2367</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0.1524462699890137</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>8</v>
+      </c>
+      <c r="B261" t="n">
+        <v>18</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>13, 5, 39, 2, 12</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>18 -&gt; 39 -&gt; 13 -&gt; 12 -&gt; 5 -&gt; 2 -&gt; 18</t>
+        </is>
+      </c>
+      <c r="E261" t="n">
+        <v>2276</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.1570398807525635</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>8</v>
+      </c>
+      <c r="B262" t="n">
+        <v>27</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2, 7, 24, 6, 1</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>27 -&gt; 24 -&gt; 7 -&gt; 1 -&gt; 2 -&gt; 6 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E262" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0.1517529487609863</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>8</v>
+      </c>
+      <c r="B263" t="n">
+        <v>24</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>19, 10, 38, 15, 34</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>24 -&gt; 19 -&gt; 15 -&gt; 10 -&gt; 34 -&gt; 38 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E263" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0.157191276550293</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>8</v>
+      </c>
+      <c r="B264" t="n">
+        <v>32</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>37, 34, 25, 3, 15</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>32 -&gt; 15 -&gt; 34 -&gt; 3 -&gt; 25 -&gt; 37 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E264" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.1549577713012695</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>8</v>
+      </c>
+      <c r="B265" t="n">
+        <v>7</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>37, 4, 35, 6, 9</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>7 -&gt; 37 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 4 -&gt; 7</t>
+        </is>
+      </c>
+      <c r="E265" t="n">
+        <v>1802</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0.1553213596343994</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>8</v>
+      </c>
+      <c r="B266" t="n">
+        <v>29</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>18, 41, 2, 12, 34</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 2 -&gt; 12 -&gt; 18 -&gt; 41 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E266" t="n">
+        <v>2220</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0.1600594520568848</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>8</v>
+      </c>
+      <c r="B267" t="n">
+        <v>35</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>24, 6, 39, 42, 5</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>35 -&gt; 6 -&gt; 5 -&gt; 24 -&gt; 42 -&gt; 39 -&gt; 35</t>
+        </is>
+      </c>
+      <c r="E267" t="n">
+        <v>1714</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0.1549773216247559</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>8</v>
+      </c>
+      <c r="B268" t="n">
+        <v>33</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>16, 23, 9, 27, 6</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>33 -&gt; 6 -&gt; 27 -&gt; 23 -&gt; 16 -&gt; 9 -&gt; 33</t>
+        </is>
+      </c>
+      <c r="E268" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0.1530327796936035</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>8</v>
+      </c>
+      <c r="B269" t="n">
+        <v>21</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>18, 16, 14, 12, 21</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>21 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 12 -&gt; 16 -&gt; 21</t>
+        </is>
+      </c>
+      <c r="E269" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0.130007266998291</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>8</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>4, 3, 27, 2, 24</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>3 -&gt; 3 -&gt; 27 -&gt; 24 -&gt; 4 -&gt; 2 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="E270" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0.1299011707305908</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>8</v>
+      </c>
+      <c r="B271" t="n">
+        <v>32</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>7, 39, 13, 22, 27</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>32 -&gt; 39 -&gt; 27 -&gt; 13 -&gt; 7 -&gt; 22 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E271" t="n">
+        <v>2189</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0.1554253101348877</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>13</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>31, 9, 22, 28, 19</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>13 -&gt; 9 -&gt; 9 -&gt; 28 -&gt; 28 -&gt; 31 -&gt; 31 -&gt; 19 -&gt; 19 -&gt; 22</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>836</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.1235864162445068</v>
+      <c r="B272" t="n">
+        <v>27</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>27, 11, 34, 37, 35</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>27 -&gt; 27 -&gt; 11 -&gt; 37 -&gt; 35 -&gt; 34 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E272" t="n">
+        <v>1414</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0.129298210144043</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>9</v>
+      </c>
+      <c r="B273" t="n">
+        <v>25</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>25, 9, 6, 2, 12</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>25 -&gt; 25 -&gt; 6 -&gt; 2 -&gt; 12 -&gt; 9 -&gt; 25</t>
+        </is>
+      </c>
+      <c r="E273" t="n">
+        <v>1407</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0.1328740119934082</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>9</v>
+      </c>
+      <c r="B274" t="n">
+        <v>23</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>7, 19, 9, 12, 14</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>23 -&gt; 19 -&gt; 12 -&gt; 9 -&gt; 7 -&gt; 14 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="E274" t="n">
+        <v>1898</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0.1524949073791504</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>9</v>
+      </c>
+      <c r="B275" t="n">
+        <v>17</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>10, 30, 15, 37, 12</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>17 -&gt; 30 -&gt; 37 -&gt; 12 -&gt; 10 -&gt; 15 -&gt; 17</t>
+        </is>
+      </c>
+      <c r="E275" t="n">
+        <v>1275</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0.1523063182830811</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>9</v>
+      </c>
+      <c r="B276" t="n">
+        <v>29</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>28, 34, 15, 31, 20</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 28 -&gt; 31 -&gt; 20 -&gt; 15 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E276" t="n">
+        <v>1206</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0.151087760925293</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>9</v>
+      </c>
+      <c r="B277" t="n">
+        <v>27</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>13, 12, 41, 20, 16</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>27 -&gt; 13 -&gt; 12 -&gt; 16 -&gt; 20 -&gt; 41 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E277" t="n">
+        <v>1595</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0.1537249088287354</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>9</v>
+      </c>
+      <c r="B278" t="n">
+        <v>22</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>39, 35, 6, 9, 12</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>22 -&gt; 39 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 12 -&gt; 22</t>
+        </is>
+      </c>
+      <c r="E278" t="n">
+        <v>2344</v>
+      </c>
+      <c r="F278" t="n">
+        <v>0.1537637710571289</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>9</v>
+      </c>
+      <c r="B279" t="n">
+        <v>42</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>24, 7, 9, 17, 42</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>42 -&gt; 42 -&gt; 9 -&gt; 7 -&gt; 17 -&gt; 24 -&gt; 42</t>
+        </is>
+      </c>
+      <c r="E279" t="n">
+        <v>1876</v>
+      </c>
+      <c r="F279" t="n">
+        <v>0.1338903903961182</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>9</v>
+      </c>
+      <c r="B280" t="n">
+        <v>20</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>25, 35, 40, 36, 19</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>20 -&gt; 40 -&gt; 36 -&gt; 35 -&gt; 25 -&gt; 19 -&gt; 20</t>
+        </is>
+      </c>
+      <c r="E280" t="n">
+        <v>1688</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0.1562967300415039</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>9</v>
+      </c>
+      <c r="B281" t="n">
+        <v>24</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>4, 28, 13, 11, 26</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>24 -&gt; 28 -&gt; 26 -&gt; 4 -&gt; 11 -&gt; 13 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E281" t="n">
+        <v>2070</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0.158437967300415</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>9</v>
+      </c>
+      <c r="B282" t="n">
+        <v>4</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>39, 40, 26, 27, 35</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>4 -&gt; 27 -&gt; 26 -&gt; 39 -&gt; 40 -&gt; 35 -&gt; 4</t>
+        </is>
+      </c>
+      <c r="E282" t="n">
+        <v>1942</v>
+      </c>
+      <c r="F282" t="n">
+        <v>0.1516270637512207</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>9</v>
+      </c>
+      <c r="B283" t="n">
+        <v>14</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>17, 24, 36, 9, 31</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>14 -&gt; 24 -&gt; 31 -&gt; 36 -&gt; 9 -&gt; 17 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E283" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F283" t="n">
+        <v>0.1546783447265625</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>9</v>
+      </c>
+      <c r="B284" t="n">
+        <v>12</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>34, 10, 1, 23, 4</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>12 -&gt; 10 -&gt; 4 -&gt; 1 -&gt; 34 -&gt; 23 -&gt; 12</t>
+        </is>
+      </c>
+      <c r="E284" t="n">
+        <v>2215</v>
+      </c>
+      <c r="F284" t="n">
+        <v>0.1522784233093262</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>9</v>
+      </c>
+      <c r="B285" t="n">
+        <v>24</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>8, 2, 21, 27, 39</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>24 -&gt; 39 -&gt; 27 -&gt; 2 -&gt; 8 -&gt; 21 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E285" t="n">
+        <v>2299</v>
+      </c>
+      <c r="F285" t="n">
+        <v>0.1545829772949219</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>9</v>
+      </c>
+      <c r="B286" t="n">
+        <v>6</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>32, 20, 17, 16, 1</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>6 -&gt; 32 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 1 -&gt; 6</t>
+        </is>
+      </c>
+      <c r="E286" t="n">
+        <v>1988</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.1530041694641113</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>9</v>
+      </c>
+      <c r="B287" t="n">
+        <v>15</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>3, 19, 14, 16, 1</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>15 -&gt; 14 -&gt; 1 -&gt; 3 -&gt; 19 -&gt; 16 -&gt; 15</t>
+        </is>
+      </c>
+      <c r="E287" t="n">
+        <v>1907</v>
+      </c>
+      <c r="F287" t="n">
+        <v>0.1527671813964844</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>9</v>
+      </c>
+      <c r="B288" t="n">
+        <v>19</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>42, 8, 35, 17, 28</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>19 -&gt; 42 -&gt; 35 -&gt; 28 -&gt; 8 -&gt; 17 -&gt; 19</t>
+        </is>
+      </c>
+      <c r="E288" t="n">
+        <v>1809</v>
+      </c>
+      <c r="F288" t="n">
+        <v>0.1542692184448242</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>9</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>39, 11, 28, 18, 13</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2 -&gt; 13 -&gt; 11 -&gt; 18 -&gt; 39 -&gt; 28 -&gt; 2</t>
+        </is>
+      </c>
+      <c r="E289" t="n">
+        <v>2383</v>
+      </c>
+      <c r="F289" t="n">
+        <v>0.155179500579834</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>9</v>
+      </c>
+      <c r="B290" t="n">
+        <v>14</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>39, 22, 24, 4, 17</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>14 -&gt; 22 -&gt; 24 -&gt; 39 -&gt; 17 -&gt; 4 -&gt; 14</t>
+        </is>
+      </c>
+      <c r="E290" t="n">
+        <v>2367</v>
+      </c>
+      <c r="F290" t="n">
+        <v>0.1511685848236084</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>9</v>
+      </c>
+      <c r="B291" t="n">
+        <v>18</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>13, 5, 39, 2, 12</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>18 -&gt; 39 -&gt; 13 -&gt; 12 -&gt; 5 -&gt; 2 -&gt; 18</t>
+        </is>
+      </c>
+      <c r="E291" t="n">
+        <v>2276</v>
+      </c>
+      <c r="F291" t="n">
+        <v>0.1569569110870361</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>9</v>
+      </c>
+      <c r="B292" t="n">
+        <v>27</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2, 7, 24, 6, 1</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>27 -&gt; 24 -&gt; 7 -&gt; 1 -&gt; 2 -&gt; 6 -&gt; 27</t>
+        </is>
+      </c>
+      <c r="E292" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F292" t="n">
+        <v>0.1507854461669922</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>9</v>
+      </c>
+      <c r="B293" t="n">
+        <v>24</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>19, 10, 38, 15, 34</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>24 -&gt; 19 -&gt; 15 -&gt; 10 -&gt; 34 -&gt; 38 -&gt; 24</t>
+        </is>
+      </c>
+      <c r="E293" t="n">
+        <v>1774</v>
+      </c>
+      <c r="F293" t="n">
+        <v>0.153984546661377</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>9</v>
+      </c>
+      <c r="B294" t="n">
+        <v>32</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>37, 34, 25, 3, 15</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>32 -&gt; 15 -&gt; 34 -&gt; 3 -&gt; 25 -&gt; 37 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E294" t="n">
+        <v>2111</v>
+      </c>
+      <c r="F294" t="n">
+        <v>0.1401243209838867</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>9</v>
+      </c>
+      <c r="B295" t="n">
+        <v>7</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>37, 4, 35, 6, 9</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>7 -&gt; 37 -&gt; 35 -&gt; 9 -&gt; 6 -&gt; 4 -&gt; 7</t>
+        </is>
+      </c>
+      <c r="E295" t="n">
+        <v>1802</v>
+      </c>
+      <c r="F295" t="n">
+        <v>0.1146566867828369</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>9</v>
+      </c>
+      <c r="B296" t="n">
+        <v>29</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>18, 41, 2, 12, 34</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>29 -&gt; 34 -&gt; 2 -&gt; 12 -&gt; 18 -&gt; 41 -&gt; 29</t>
+        </is>
+      </c>
+      <c r="E296" t="n">
+        <v>2220</v>
+      </c>
+      <c r="F296" t="n">
+        <v>0.1133878231048584</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>9</v>
+      </c>
+      <c r="B297" t="n">
+        <v>35</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>24, 6, 39, 42, 5</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>35 -&gt; 6 -&gt; 5 -&gt; 24 -&gt; 42 -&gt; 39 -&gt; 35</t>
+        </is>
+      </c>
+      <c r="E297" t="n">
+        <v>1714</v>
+      </c>
+      <c r="F297" t="n">
+        <v>0.1139798164367676</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>9</v>
+      </c>
+      <c r="B298" t="n">
+        <v>33</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>16, 23, 9, 27, 6</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>33 -&gt; 6 -&gt; 27 -&gt; 23 -&gt; 16 -&gt; 9 -&gt; 33</t>
+        </is>
+      </c>
+      <c r="E298" t="n">
+        <v>2048</v>
+      </c>
+      <c r="F298" t="n">
+        <v>0.1125726699829102</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>9</v>
+      </c>
+      <c r="B299" t="n">
+        <v>21</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>18, 16, 14, 12, 21</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>21 -&gt; 21 -&gt; 18 -&gt; 14 -&gt; 12 -&gt; 16 -&gt; 21</t>
+        </is>
+      </c>
+      <c r="E299" t="n">
+        <v>1005</v>
+      </c>
+      <c r="F299" t="n">
+        <v>0.09745526313781738</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>9</v>
+      </c>
+      <c r="B300" t="n">
+        <v>3</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4, 3, 27, 2, 24</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>3 -&gt; 3 -&gt; 27 -&gt; 24 -&gt; 4 -&gt; 2 -&gt; 3</t>
+        </is>
+      </c>
+      <c r="E300" t="n">
+        <v>1861</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.09668326377868652</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>9</v>
+      </c>
+      <c r="B301" t="n">
+        <v>32</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>7, 39, 13, 22, 27</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>32 -&gt; 39 -&gt; 27 -&gt; 13 -&gt; 7 -&gt; 22 -&gt; 32</t>
+        </is>
+      </c>
+      <c r="E301" t="n">
+        <v>2189</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.1147210597991943</v>
       </c>
     </row>
   </sheetData>
